--- a/运营出入金/新股缴款/输出文件/20200807上交所（冠盛股份）九章 招商证券幻方.xlsx
+++ b/运营出入金/新股缴款/输出文件/20200807上交所（冠盛股份）九章 招商证券幻方.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\运营出入金\新股缴款\输出文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonCode\yunying\运营出入金\新股缴款\输出文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB2B548-89E5-4A2A-B88F-67DA7D70FE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30C28A2B-3D53-4D3C-BF5C-9B0113685D09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{CBB75CA3-C07D-4AA6-B34C-5C080CF9305E}"/>
   </bookViews>
